--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3850015.570708351</v>
+        <v>3848127.989191949</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>112.3932904856839</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>86.27128868382955</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>70.03418953493001</v>
       </c>
       <c r="V4" t="n">
-        <v>205.1478855987997</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>133.1396735585118</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>273.0065037122683</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>52.10844059186255</v>
+        <v>55.71969997626057</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>42.78173518640552</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1184,19 +1184,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>169.6822018002577</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.90187484148903</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722641</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014439</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>33.35146980185944</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206849</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113178</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1667,13 +1667,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>113.9765264254015</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,19 +1850,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722641</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1938,10 +1938,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>140.0424879565119</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2138,13 +2138,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701373</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,10 +2175,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>89.15058872626217</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056512</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.391732706091214e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.391732706091214e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.391732706091214e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.391732706091214e-13</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>8.525532102717619</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>179.0205566759031</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.62872355338</v>
       </c>
       <c r="C31" t="n">
-        <v>96.55340814464341</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801184</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437392</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348203</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571495</v>
+        <v>46.15337586179125</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523576</v>
+        <v>54.76109577523548</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550459</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298319</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.03409577002</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952707</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604798</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235375</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1210.087414675782</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861747</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2554.977685706463</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2301.215900344554</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1970.153013000984</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1970.153013000984</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1596.687254739904</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1596.687254739904</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="3">
@@ -4404,7 +4404,7 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430001</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150932</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027575</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>520.9088977430001</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>520.9088977430001</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>520.9088977430001</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>520.9088977430001</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1117.513150920515</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>748.5506339801032</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>748.5506339801032</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>362.7623813818589</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>355.8168806326555</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>341.8934765712464</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X5" t="n">
-        <v>1507.652482896327</v>
+        <v>1596.219838194355</v>
       </c>
       <c r="Y5" t="n">
-        <v>1117.513150920515</v>
+        <v>1206.080506218543</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4653,7 +4653,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468208</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1781.603107998156</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C8" t="n">
-        <v>1412.640591057745</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>1054.374892450994</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>668.5866398527501</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
         <v>625.3727659270879</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2130.940772869852</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.202948062278</v>
+        <v>1778.172117599737</v>
       </c>
       <c r="X8" t="n">
-        <v>2168.202948062278</v>
+        <v>1404.706359338657</v>
       </c>
       <c r="Y8" t="n">
-        <v>2168.202948062278</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207832</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="12">
@@ -5106,7 +5106,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126484</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147084</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>1503.408902298184</v>
       </c>
       <c r="N12" t="n">
-        <v>1646.27469227828</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O12" t="n">
-        <v>2315.738453580939</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799369</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471198</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247868</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038345</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>420.322614832458</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>130.9054447954975</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954975</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954975</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5264,34 +5264,34 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155891</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5300,28 +5300,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341679</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>841.8631140141298</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005288</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726218</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.217091460286</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799365</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765183</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706313</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>531.3977182706313</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005288</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,55 +5510,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>709.4934589365129</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>420.322614832457</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>420.322614832457</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>420.322614832457</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905257</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5738,64 +5738,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>732.1698305154044</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795366</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005287</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726217</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5917,16 +5917,16 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1408.865170834405</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1408.865170834405</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765184</v>
+        <v>1119.736532047963</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706316</v>
+        <v>865.0520438420764</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336709</v>
+        <v>865.0520438420764</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>637.0624929440589</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005287</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6011,28 +6011,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6063,22 +6063,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>410.8745301331619</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.043068977054</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1999.905696641086</v>
+        <v>1661.954360834045</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602865</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028633</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028618</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028604</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531124</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531124</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744682</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>835.4163915387951</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018343</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038167</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602865</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6248,10 +6248,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>395.2468244550148</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>395.2468244550148</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>985.7136853104469</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>757.7241344124294</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>576.8952892852545</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,55 +6458,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>474.8900731662877</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.532429954218</v>
+        <v>439.5324299542225</v>
       </c>
       <c r="C31" t="n">
-        <v>342.0037348586186</v>
+        <v>439.5324299542225</v>
       </c>
       <c r="D31" t="n">
-        <v>247.6479607276536</v>
+        <v>439.5324299542225</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6479607276536</v>
+        <v>347.3802016532004</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276536</v>
+        <v>256.2511194366611</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>143.8366630378528</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>143.8366630378528</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962062</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899273</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096196</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167073</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662002</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737486</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818929</v>
+        <v>902.6804289818965</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652463</v>
+        <v>730.4517433652502</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.420029503087</v>
+        <v>565.4200295030912</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6677,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6725,22 +6725,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6783,19 +6783,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977054</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
@@ -7020,19 +7020,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977054</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1999.905696641086</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7254,25 +7254,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>488.2756279992592</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>735.0407559057232</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977054</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>1999.905696641086</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525396</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
@@ -7406,7 +7406,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7433,25 +7433,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
@@ -7494,22 +7494,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.043068977054</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
-        <v>1999.905696641086</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,52 +7567,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>410.8745301331628</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>1024.771599890051</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8067,10 +8067,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>171.2966883299241</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>15.83804904622852</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>176.7176547498433</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814688</v>
+        <v>50.62661940943462</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119839</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9483,10 +9483,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>199.6230805871076</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,19 +9717,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>124.3400780863216</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>52.49733361305249</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>171.2966883299264</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,28 +10191,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>189.0022427662469</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>104.8749102765746</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10668,22 +10668,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>52.49733361305249</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>15.83804904622824</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>202.5230052237939</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,25 +11142,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,28 +11376,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>80.50021372615265</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800778</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>111.7331289636357</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633779</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338554</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>78.54216539558287</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>108.7702212573411</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338594</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675363</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.3952778808857</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338564</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>39.5640966761917</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>15.49015632542738</v>
+        <v>112.0435644700705</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965503</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389788</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.062612973923414</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
+        <v>723403.7605147618</v>
+      </c>
+      <c r="F2" t="n">
+        <v>723403.7605147617</v>
+      </c>
+      <c r="G2" t="n">
         <v>723403.7605147616</v>
       </c>
-      <c r="F2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="G2" t="n">
-        <v>723403.7605147611</v>
-      </c>
       <c r="H2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="I2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147616</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.760514761</v>
       </c>
       <c r="K2" t="n">
-        <v>752620.9540887489</v>
+        <v>752620.9540887492</v>
       </c>
       <c r="L2" t="n">
         <v>759463.6371244614</v>
       </c>
       <c r="M2" t="n">
-        <v>759463.6371244616</v>
+        <v>759463.6371244612</v>
       </c>
       <c r="N2" t="n">
-        <v>759463.6371244614</v>
+        <v>759463.6371244615</v>
       </c>
       <c r="O2" t="n">
-        <v>759463.6371244615</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="P2" t="n">
-        <v>759463.6371244614</v>
+        <v>759463.6371244611</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925923</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.6053028459</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086693</v>
+        <v>10342.90680086664</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284592</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143897</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143898</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.66962143899</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143897</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.2921356356</v>
+        <v>33210.29213563573</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275956</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275958</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275957</v>
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871668</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022281</v>
@@ -26500,16 +26500,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70138.27840471422</v>
+        <v>-70138.27840471434</v>
       </c>
       <c r="C6" t="n">
-        <v>519829.6008098302</v>
+        <v>519829.60080983</v>
       </c>
       <c r="D6" t="n">
-        <v>519829.6008098301</v>
+        <v>519829.6008098305</v>
       </c>
       <c r="E6" t="n">
-        <v>91210.72846770968</v>
+        <v>91113.26934173724</v>
       </c>
       <c r="F6" t="n">
-        <v>616370.7649446056</v>
+        <v>616273.3058186339</v>
       </c>
       <c r="G6" t="n">
-        <v>616370.7649446054</v>
+        <v>616273.3058186338</v>
       </c>
       <c r="H6" t="n">
-        <v>616370.7649446055</v>
+        <v>616273.3058186336</v>
       </c>
       <c r="I6" t="n">
-        <v>616370.7649446055</v>
+        <v>616273.3058186336</v>
       </c>
       <c r="J6" t="n">
-        <v>439947.5457520128</v>
+        <v>439850.0866260408</v>
       </c>
       <c r="K6" t="n">
-        <v>578619.8481200449</v>
+        <v>578601.3543821104</v>
       </c>
       <c r="L6" t="n">
-        <v>613941.1676408094</v>
+        <v>613941.1676408098</v>
       </c>
       <c r="M6" t="n">
-        <v>489483.0592078394</v>
+        <v>489483.059207839</v>
       </c>
       <c r="N6" t="n">
-        <v>624284.0744416764</v>
+        <v>624284.0744416765</v>
       </c>
       <c r="O6" t="n">
-        <v>624284.0744416765</v>
+        <v>624284.0744416771</v>
       </c>
       <c r="P6" t="n">
-        <v>580121.4691388308</v>
+        <v>580121.4691388302</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964064</v>
@@ -26735,34 +26735,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541009</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541008</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541008</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26796,19 +26796,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855737</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108367</v>
+        <v>12.9286335010833</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.2032566285574</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545548</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855737</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>252.8796012853236</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>130.1770316738283</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>216.2476847070477</v>
       </c>
       <c r="V4" t="n">
-        <v>46.98975772502828</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>190.7830992058453</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>96.72459696620069</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>96.50703242634981</v>
+        <v>92.89577304195178</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>364.0943105553059</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>158.0700566698772</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>46.76331713866882</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28570,13 +28570,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.960078079684134e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-9.654070646351537e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28858,13 +28858,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-6.573391689543278e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-8.232985174831331e-14</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855733</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176653</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.647069592719</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.452637254089</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946996</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354895</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127069</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622985</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458552</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095119</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361495</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298633</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065634</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336903</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.39802836989225</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081123</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951476</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109127</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349825</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879395</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>481.7210653803907</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P12" t="n">
-        <v>222.9314639777532</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686872</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556562</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187485</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>509.9122281478565</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.226021517838</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341712</v>
+        <v>299.8843243654592</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.226021517838</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>448.8807855431322</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415667</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556551</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>274.915516674261</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O24" t="n">
-        <v>334.8610358541607</v>
+        <v>676.226021517838</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556545</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36525,16 +36525,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>453.6603905710345</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36762,16 +36762,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>339.5776813541862</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412256</v>
+        <v>67.71102679412284</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584679</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084859</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341609</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403581</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043179</v>
+        <v>94.42895660043207</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37151,7 +37151,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004662</v>
@@ -37160,13 +37160,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>192.8879430616487</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,13 +37239,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37388,22 +37388,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>334.8610358541607</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>103.8510818313024</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37555,7 +37555,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>353.0984438117331</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004662</v>
@@ -37634,16 +37634,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37789,7 +37789,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>660.1896773843231</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>274.915516674262</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>168.5132465112268</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
